--- a/data/processed/con_victimas_hora_inter.xlsx
+++ b/data/processed/con_victimas_hora_inter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Downloads\proyecto_accidentes\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A67CCB6-DB3C-4F6B-8717-588E14C362FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE30539-CE8B-4D68-B042-88E7D5211ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E40D200-3147-429B-8FB2-A74E7CFEBF85}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>HORA</t>
   </si>
   <si>
-    <t>ACCIDENTES CON VÍCTIMAS</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>victimas_segun_hora_inter</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -584,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77196D5-0025-45F0-8E31-23232C520CFE}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -597,7 +597,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -609,789 +609,760 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>2</v>
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6">
+        <v>86</v>
+      </c>
+      <c r="C3" s="6">
+        <v>59</v>
+      </c>
+      <c r="D3" s="6">
+        <v>56</v>
+      </c>
+      <c r="E3" s="6">
+        <v>59</v>
+      </c>
+      <c r="F3" s="6">
+        <v>68</v>
+      </c>
+      <c r="G3" s="6">
+        <v>105</v>
+      </c>
+      <c r="H3" s="6">
+        <v>111</v>
+      </c>
+      <c r="I3" s="7">
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="3"/>
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>50</v>
+      </c>
+      <c r="C4" s="6">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6">
+        <v>47</v>
+      </c>
+      <c r="E4" s="6">
+        <v>40</v>
+      </c>
+      <c r="F4" s="6">
+        <v>53</v>
+      </c>
+      <c r="G4" s="6">
+        <v>85</v>
+      </c>
+      <c r="H4" s="6">
+        <v>102</v>
+      </c>
+      <c r="I4" s="7">
+        <v>414</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G5" s="6">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="H5" s="6">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="I5" s="7">
-        <v>544</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E6" s="6">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F6" s="6">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G6" s="6">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H6" s="6">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="I6" s="7">
-        <v>414</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6">
         <v>30</v>
       </c>
-      <c r="D7" s="6">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6">
-        <v>31</v>
-      </c>
       <c r="F7" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G7" s="6">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H7" s="6">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I7" s="7">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C8" s="6">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D8" s="6">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E8" s="6">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F8" s="6">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="G8" s="6">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="H8" s="6">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="I8" s="7">
-        <v>301</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="C9" s="6">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D9" s="6">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="E9" s="6">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="F9" s="6">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="G9" s="6">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="H9" s="6">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="I9" s="7">
-        <v>328</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6">
-        <v>65</v>
+        <v>339</v>
       </c>
       <c r="C10" s="6">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="D10" s="6">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="E10" s="6">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="F10" s="6">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="G10" s="6">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="H10" s="6">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="I10" s="7">
-        <v>546</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6">
-        <v>166</v>
+        <v>343</v>
       </c>
       <c r="C11" s="6">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="D11" s="6">
-        <v>137</v>
+        <v>338</v>
       </c>
       <c r="E11" s="6">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="F11" s="6">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="G11" s="6">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H11" s="6">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="I11" s="7">
-        <v>1045</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="C12" s="6">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="D12" s="6">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="E12" s="6">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F12" s="6">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G12" s="6">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="H12" s="6">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="I12" s="7">
-        <v>1732</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="C13" s="6">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="D13" s="6">
-        <v>338</v>
+        <v>220</v>
       </c>
       <c r="E13" s="6">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="F13" s="6">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="G13" s="6">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="H13" s="6">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c r="I13" s="7">
-        <v>1902</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C14" s="6">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="D14" s="6">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="E14" s="6">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F14" s="6">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="G14" s="6">
-        <v>237</v>
+        <v>406</v>
       </c>
       <c r="H14" s="6">
-        <v>204</v>
+        <v>396</v>
       </c>
       <c r="I14" s="7">
-        <v>1805</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="C15" s="6">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="D15" s="6">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="E15" s="6">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F15" s="6">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="G15" s="6">
-        <v>299</v>
+        <v>424</v>
       </c>
       <c r="H15" s="6">
-        <v>269</v>
+        <v>441</v>
       </c>
       <c r="I15" s="7">
-        <v>1769</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="6">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C16" s="6">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="D16" s="6">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="E16" s="6">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="F16" s="6">
-        <v>310</v>
+        <v>397</v>
       </c>
       <c r="G16" s="6">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H16" s="6">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="I16" s="7">
-        <v>2159</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="6">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="C17" s="6">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="D17" s="6">
-        <v>278</v>
+        <v>398</v>
       </c>
       <c r="E17" s="6">
-        <v>246</v>
+        <v>369</v>
       </c>
       <c r="F17" s="6">
-        <v>282</v>
+        <v>487</v>
       </c>
       <c r="G17" s="6">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="H17" s="6">
-        <v>441</v>
+        <v>275</v>
       </c>
       <c r="I17" s="7">
-        <v>2253</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="6">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="C18" s="6">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="D18" s="6">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="E18" s="6">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="F18" s="6">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="G18" s="6">
-        <v>405</v>
+        <v>256</v>
       </c>
       <c r="H18" s="6">
-        <v>355</v>
+        <v>199</v>
       </c>
       <c r="I18" s="7">
-        <v>2327</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="6">
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="C19" s="6">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="D19" s="6">
-        <v>398</v>
+        <v>283</v>
       </c>
       <c r="E19" s="6">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="F19" s="6">
-        <v>487</v>
+        <v>366</v>
       </c>
       <c r="G19" s="6">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="H19" s="6">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="I19" s="7">
-        <v>2539</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="6">
+        <v>309</v>
+      </c>
+      <c r="C20" s="6">
+        <v>295</v>
+      </c>
+      <c r="D20" s="6">
+        <v>307</v>
+      </c>
+      <c r="E20" s="6">
+        <v>324</v>
+      </c>
+      <c r="F20" s="6">
         <v>374</v>
       </c>
-      <c r="C20" s="6">
-        <v>340</v>
-      </c>
-      <c r="D20" s="6">
-        <v>318</v>
-      </c>
-      <c r="E20" s="6">
-        <v>346</v>
-      </c>
-      <c r="F20" s="6">
-        <v>382</v>
-      </c>
       <c r="G20" s="6">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="H20" s="6">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="I20" s="7">
-        <v>2215</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="6">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="C21" s="6">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="D21" s="6">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E21" s="6">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F21" s="6">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="G21" s="6">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="H21" s="6">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="I21" s="7">
-        <v>2023</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="6">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C22" s="6">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D22" s="6">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="E22" s="6">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F22" s="6">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="G22" s="6">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="H22" s="6">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="I22" s="7">
-        <v>2157</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="6">
-        <v>330</v>
+        <v>221</v>
       </c>
       <c r="C23" s="6">
-        <v>346</v>
+        <v>204</v>
       </c>
       <c r="D23" s="6">
-        <v>292</v>
+        <v>196</v>
       </c>
       <c r="E23" s="6">
-        <v>344</v>
+        <v>229</v>
       </c>
       <c r="F23" s="6">
-        <v>401</v>
+        <v>275</v>
       </c>
       <c r="G23" s="6">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="H23" s="6">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="I23" s="7">
-        <v>2334</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="6">
-        <v>269</v>
+        <v>139</v>
       </c>
       <c r="C24" s="6">
-        <v>287</v>
+        <v>158</v>
       </c>
       <c r="D24" s="6">
-        <v>285</v>
+        <v>162</v>
       </c>
       <c r="E24" s="6">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="F24" s="6">
-        <v>349</v>
+        <v>206</v>
       </c>
       <c r="G24" s="6">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="H24" s="6">
-        <v>288</v>
+        <v>157</v>
       </c>
       <c r="I24" s="7">
-        <v>2074</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="6">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="C25" s="6">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="D25" s="6">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="E25" s="6">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="F25" s="6">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="G25" s="6">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="H25" s="6">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="I25" s="7">
-        <v>1613</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="6">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C26" s="6">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="D26" s="6">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="E26" s="6">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="F26" s="6">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="G26" s="6">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="H26" s="6">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="I26" s="7">
-        <v>1212</v>
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="6">
-        <v>145</v>
-      </c>
-      <c r="C27" s="6">
-        <v>108</v>
-      </c>
-      <c r="D27" s="6">
-        <v>140</v>
-      </c>
-      <c r="E27" s="6">
-        <v>166</v>
-      </c>
-      <c r="F27" s="6">
-        <v>151</v>
-      </c>
-      <c r="G27" s="6">
-        <v>183</v>
-      </c>
-      <c r="H27" s="6">
-        <v>136</v>
+      <c r="A27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7">
+        <v>5052</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4779</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4837</v>
+      </c>
+      <c r="E27" s="7">
+        <v>4906</v>
+      </c>
+      <c r="F27" s="7">
+        <v>5548</v>
+      </c>
+      <c r="G27" s="7">
+        <v>5266</v>
+      </c>
+      <c r="H27" s="7">
+        <v>4942</v>
       </c>
       <c r="I27" s="7">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="6">
-        <v>73</v>
-      </c>
-      <c r="C28" s="6">
-        <v>78</v>
-      </c>
-      <c r="D28" s="6">
-        <v>81</v>
-      </c>
-      <c r="E28" s="6">
-        <v>83</v>
-      </c>
-      <c r="F28" s="6">
-        <v>117</v>
-      </c>
-      <c r="G28" s="6">
-        <v>166</v>
-      </c>
-      <c r="H28" s="6">
-        <v>95</v>
-      </c>
-      <c r="I28" s="7">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="7">
-        <v>5052</v>
-      </c>
-      <c r="C29" s="7">
-        <v>4779</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4837</v>
-      </c>
-      <c r="E29" s="7">
-        <v>4906</v>
-      </c>
-      <c r="F29" s="7">
-        <v>5548</v>
-      </c>
-      <c r="G29" s="7">
-        <v>5266</v>
-      </c>
-      <c r="H29" s="7">
-        <v>4942</v>
-      </c>
-      <c r="I29" s="7">
         <v>35330</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:I4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>